--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2533291.248310058</v>
+        <v>-2535944.529840521</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>266.8398812837497</v>
       </c>
       <c r="G2" t="n">
-        <v>395.0980540215865</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>17.80549875982285</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>100.1410754051761</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>107.5993930856742</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>282.2678273190182</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>163.865193364634</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>83.82099721688236</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>65.71961571523778</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>177.2090604069375</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>6.632494016571679</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>91.73942650174766</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>47.29196656812039</v>
       </c>
       <c r="V10" t="n">
-        <v>146.8823544059159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977265</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>160.3783204776929</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>111.3213230702132</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>252.4232733838731</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096056</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2764,7 +2764,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352493</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2792,13 +2792,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,16 +2956,16 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652582</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541847</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.3216348137587</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C2" t="n">
-        <v>861.3216348137587</v>
+        <v>1077.003065952738</v>
       </c>
       <c r="D2" t="n">
-        <v>861.3216348137587</v>
+        <v>1077.003065952738</v>
       </c>
       <c r="E2" t="n">
-        <v>861.3216348137587</v>
+        <v>691.2148133544936</v>
       </c>
       <c r="F2" t="n">
-        <v>450.3357300241511</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,16 +4331,16 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925521</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2071.387056101683</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1840.887357870071</v>
+        <v>1443.082764731814</v>
       </c>
       <c r="C4" t="n">
-        <v>1671.951174942164</v>
+        <v>1274.146581803907</v>
       </c>
       <c r="D4" t="n">
-        <v>1521.834535529829</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="E4" t="n">
-        <v>1373.921441947436</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>1227.031494449525</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
         <v>1174.299679627706</v>
@@ -4516,22 +4516,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>2453.65307275806</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>2164.534735261898</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>1909.850247056011</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.535822700311</v>
+        <v>1909.850247056011</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.535822700311</v>
+        <v>1681.860696157994</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.535822700311</v>
+        <v>1461.068117014463</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744046</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>654.0504646744046</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>243.064559884797</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>232.0325137701976</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4571,46 +4571,46 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2671.139254837878</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2318.370599567763</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>696.1640136694029</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>527.2278307414961</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>377.1111913291603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1466.779155756748</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.094667550861</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>922.6774975139006</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="X7" t="n">
-        <v>922.6774975139006</v>
+        <v>1098.605057643173</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.6774975139006</v>
+        <v>877.8124784996427</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,7 +4799,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.07795407525</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2332.07795407525</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
         <v>477.7578170212613</v>
@@ -4951,13 +4951,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1789.694427645899</v>
       </c>
       <c r="V10" t="n">
-        <v>1178.22859398976</v>
+        <v>1535.009939440012</v>
       </c>
       <c r="W10" t="n">
-        <v>1178.22859398976</v>
+        <v>1245.592769403052</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.22859398976</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5604,16 +5604,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687975</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>982.2858920990373</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990373</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5947,13 +5947,13 @@
         <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
         <v>411.2214559580113</v>
@@ -6151,7 +6151,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6172,22 +6172,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6312,16 +6312,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6388,7 +6388,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,25 +6406,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6461,22 +6461,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,13 +6546,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>105.1672460959156</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>140.0361644579618</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44964875136748</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>162.0264814221144</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4.255171017572841</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>24.81829093850928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>65.33133491134421</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.11263957635599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>34.09972495271793</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1401477.043940446</v>
+        <v>1401477.043940445</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1401477.043940445</v>
+        <v>1401477.043940446</v>
       </c>
     </row>
     <row r="8">
@@ -26314,22 +26314,22 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225014</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660709</v>
@@ -26338,22 +26338,22 @@
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="M2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31928.28153540093</v>
+        <v>31928.28153540091</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26439,16 +26439,16 @@
         <v>17938.00358486237</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486243</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.0035848624</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486242</v>
       </c>
       <c r="N4" t="n">
         <v>17938.00358486237</v>
@@ -26457,7 +26457,7 @@
         <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1223734.761224804</v>
+        <v>-1224199.058016828</v>
       </c>
       <c r="C6" t="n">
-        <v>-379980.8170200122</v>
+        <v>-379980.8170200123</v>
       </c>
       <c r="D6" t="n">
         <v>-176542.0754079064</v>
       </c>
       <c r="E6" t="n">
-        <v>-416303.4709607811</v>
+        <v>-416338.2088862167</v>
       </c>
       <c r="F6" t="n">
-        <v>-90891.0091534259</v>
+        <v>-90925.74707886155</v>
       </c>
       <c r="G6" t="n">
-        <v>-90891.00915342585</v>
+        <v>-90925.74707886155</v>
       </c>
       <c r="H6" t="n">
-        <v>-90891.00915342585</v>
+        <v>-90925.74707886156</v>
       </c>
       <c r="I6" t="n">
         <v>-120003.7931858025</v>
@@ -26546,7 +26546,7 @@
         <v>-268181.2530021532</v>
       </c>
       <c r="K6" t="n">
-        <v>-149686.1678982251</v>
+        <v>-149686.1678982252</v>
       </c>
       <c r="L6" t="n">
         <v>-100576.0751921707</v>
@@ -26707,25 +26707,25 @@
         <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27012,7 +27012,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>66.16552463962806</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,10 +27588,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>113.1493029115377</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>130.7425710226864</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>243.9312612532526</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>80.71434693133139</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>109.0027777986754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>376.1013476469089</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>257.5015422156654</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,19 +28062,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>238.9198716374925</v>
       </c>
       <c r="V10" t="n">
-        <v>105.2552889179121</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,16 +33266,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33907,10 +33907,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>354.8467752194479</v>
+        <v>388.6189266346379</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
@@ -36531,7 +36531,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
         <v>144.6869047919381</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111711</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
